--- a/sorel/01. bench_s3_ls/analysis/run notes.xlsx
+++ b/sorel/01. bench_s3_ls/analysis/run notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HERZOMJ\source\GitHub\big_data_demo\sorel\01. bench_s3_ls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HERZOMJ\source\GitHub\big_data_demo\sorel\01. bench_s3_ls\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926869F2-EDD4-41DC-A6D5-C394B536B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CA91A-3321-4BF0-93FB-9D1120223C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C86255B7-07AE-4159-A1DE-F8879CE0F203}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t xml:space="preserve">Start:  </t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Size/file</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -209,12 +224,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -244,18 +266,6 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -272,6 +282,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -411,14 +427,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{620B6104-0160-46C5-AE8C-4124932B499E}" name="Table5" displayName="Table5" ref="M1:O6" totalsRowShown="0">
-  <autoFilter ref="M1:O6" xr:uid="{620B6104-0160-46C5-AE8C-4124932B499E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C2D976FC-A46C-47A5-A9E1-F493C8DF4B68}" name="# Files" dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{E1A1DEEC-9580-4195-8462-A300B30D7181}" name="Size" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4E2BD4EA-5D40-499E-A55A-2C65504CB65D}" name="Size/file" dataDxfId="2" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{620B6104-0160-46C5-AE8C-4124932B499E}" name="Table5" displayName="Table5" ref="M1:P6" totalsRowShown="0">
+  <autoFilter ref="M1:P6" xr:uid="{620B6104-0160-46C5-AE8C-4124932B499E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C2D976FC-A46C-47A5-A9E1-F493C8DF4B68}" name="# Files" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{E1A1DEEC-9580-4195-8462-A300B30D7181}" name="Size" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{4E2BD4EA-5D40-499E-A55A-2C65504CB65D}" name="Size/file" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>N2/M2</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{E23AFEB8-6085-4E13-8EFD-48ACBDF531F4}" name="Prefix"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,8 +445,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6F452E83-FD99-478F-A83A-24E898EBCDCC}" name="Table3" displayName="Table3" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6F452E83-FD99-478F-A83A-24E898EBCDCC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4651F7C5-4326-4F3E-A5C6-1CE83EEEB5A0}" name="# Files" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{C8780520-AC53-471D-89BB-4115970C5C5F}" name="Data to transfer (MB)" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4651F7C5-4326-4F3E-A5C6-1CE83EEEB5A0}" name="# Files" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{C8780520-AC53-471D-89BB-4115970C5C5F}" name="Data to transfer (MB)" dataDxfId="4" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -440,17 +457,17 @@
   <autoFilter ref="A4:F7" xr:uid="{46365901-7C69-40B0-AB8B-6EEFD7B856E7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A4245A19-B11D-4B9B-9800-AA9A2CF15EDC}" name="Time Required (Hrs)"/>
-    <tableColumn id="2" xr3:uid="{8D8A9450-4CB7-4987-87A1-753AC4C8914F}" name="Files/Sec" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{8D8A9450-4CB7-4987-87A1-753AC4C8914F}" name="Files/Sec" dataDxfId="3">
       <calculatedColumnFormula array="1">Table3['# Files]/Table4[[#This Row],[Time Required (Hrs)]]/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{523FFBD8-879C-4690-A002-8CA2B7FB6462}" name="MB/Sec" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{523FFBD8-879C-4690-A002-8CA2B7FB6462}" name="MB/Sec" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">Table3[Data to transfer (MB)]/Table4[[#This Row],[Time Required (Hrs)]]/3600</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{6328C5DD-64C4-4DE2-ABDD-7F2E3F70DC08}" name="# Workers"/>
-    <tableColumn id="5" xr3:uid="{10AADC3A-094B-4FB6-99E7-F595BA047000}" name="Files/Sec/Worker" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{10AADC3A-094B-4FB6-99E7-F595BA047000}" name="Files/Sec/Worker" dataDxfId="1">
       <calculatedColumnFormula>Table4[[#This Row],[Files/Sec]]/Table4[[#This Row],['# Workers]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A58C679B-6E71-442C-AC3F-FDB6B76604C0}" name="MB/Sec/Worker" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{A58C679B-6E71-442C-AC3F-FDB6B76604C0}" name="MB/Sec/Worker" dataDxfId="0">
       <calculatedColumnFormula>Table4[[#This Row],[MB/Sec]]/Table4[[#This Row],['# Workers]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -758,7 +775,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,11 +914,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA2B0AC-F327-404A-B537-1167C600A620}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -920,7 +935,7 @@
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -960,8 +975,11 @@
       <c r="O1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45002</v>
       </c>
@@ -1005,8 +1023,11 @@
         <f>N2/M2</f>
         <v>1206609.72</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45002</v>
       </c>
@@ -1050,8 +1071,11 @@
         <f>N3/M3</f>
         <v>929841.03954341623</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45001</v>
       </c>
@@ -1093,8 +1117,11 @@
         <f>N4/M4</f>
         <v>964372.64084905176</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M5" s="5">
         <v>618932</v>
       </c>
@@ -1105,8 +1132,11 @@
         <f>N5/M5</f>
         <v>960720.57116936916</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M6" s="5">
         <v>13000000</v>
       </c>
